--- a/Surveys/Survey Lines/Survey Lines - adjusted bottom line.xlsx
+++ b/Surveys/Survey Lines/Survey Lines - adjusted bottom line.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\herri\Documents\GitHub\HerringScience.github.io\Surveys\Survey Lines\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08A8EB3F-32BB-4E85-84E0-FA0244359CE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DBB758C-9E9C-4C32-80B0-7D278F41FFFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data Entry" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="49">
   <si>
     <t>INSTRUCTIONS:</t>
   </si>
@@ -210,16 +210,32 @@
   <si>
     <t>Scots Bay</t>
   </si>
+  <si>
+    <t>451+</t>
+  </si>
+  <si>
+    <t>LM</t>
+  </si>
+  <si>
+    <t>MS</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -341,29 +357,31 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -581,8 +599,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="V18" sqref="V18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -885,28 +903,28 @@
         <v>1</v>
       </c>
       <c r="B11" s="16">
-        <v>4502.1819999999998</v>
+        <v>4503.299</v>
       </c>
       <c r="C11" s="16">
         <v>6514</v>
       </c>
       <c r="D11" s="16">
-        <v>4513.4750000000004</v>
+        <v>4514.2209999999995</v>
       </c>
       <c r="E11" s="16">
-        <v>6441.48</v>
+        <v>6442.6260000000002</v>
       </c>
       <c r="F11" s="12">
-        <v>45.036366666666666</v>
+        <v>45.054983333333332</v>
       </c>
       <c r="G11" s="12">
         <v>-65.233333333333334</v>
       </c>
       <c r="H11" s="12">
-        <v>45.224583333333335</v>
+        <v>45.237016666666669</v>
       </c>
       <c r="I11" s="12">
-        <v>-64.691333333333333</v>
+        <v>-64.710433333333327</v>
       </c>
       <c r="L11" s="6">
         <v>1</v>
@@ -941,28 +959,28 @@
         <v>2</v>
       </c>
       <c r="B12" s="16">
-        <v>4503.2988571428568</v>
+        <v>4504.2562857142857</v>
       </c>
       <c r="C12" s="16">
         <v>6514</v>
       </c>
       <c r="D12" s="16">
-        <v>4514.221428571429</v>
+        <v>4514.8608571428567</v>
       </c>
       <c r="E12" s="16">
-        <v>6442.6257142857139</v>
+        <v>6443.6080000000002</v>
       </c>
       <c r="F12" s="12">
-        <v>45.054980952381001</v>
+        <v>45.070938095238169</v>
       </c>
       <c r="G12" s="12">
         <v>-65.233333333333334</v>
       </c>
       <c r="H12" s="12">
-        <v>45.237023809523834</v>
+        <v>45.247680952381003</v>
       </c>
       <c r="I12" s="12">
-        <v>-64.710428571428494</v>
+        <v>-64.726799999999997</v>
       </c>
       <c r="L12" s="6">
         <v>2</v>
@@ -997,28 +1015,28 @@
         <v>3</v>
       </c>
       <c r="B13" s="16">
-        <v>4504.4157142857139</v>
+        <v>4505.2135714285714</v>
       </c>
       <c r="C13" s="16">
         <v>6514</v>
       </c>
       <c r="D13" s="16">
-        <v>4514.9678571428576</v>
+        <v>4515.5007142857139</v>
       </c>
       <c r="E13" s="16">
-        <v>6443.7714285714283</v>
+        <v>6444.59</v>
       </c>
       <c r="F13" s="12">
-        <v>45.073595238095166</v>
+        <v>45.086892857142836</v>
       </c>
       <c r="G13" s="12">
         <v>-65.233333333333334</v>
       </c>
       <c r="H13" s="12">
-        <v>45.249464285714332</v>
+        <v>45.258345238095167</v>
       </c>
       <c r="I13" s="12">
-        <v>-64.72952380952384</v>
+        <v>-64.743166666666667</v>
       </c>
       <c r="L13" s="6">
         <v>3</v>
@@ -1053,28 +1071,28 @@
         <v>4</v>
       </c>
       <c r="B14" s="16">
-        <v>4505.5325714285709</v>
+        <v>4506.1708571428571</v>
       </c>
       <c r="C14" s="16">
         <v>6514</v>
       </c>
       <c r="D14" s="16">
-        <v>4515.7142857142862</v>
+        <v>4516.1405714285711</v>
       </c>
       <c r="E14" s="16">
-        <v>6444.9171428571426</v>
+        <v>6445.5720000000001</v>
       </c>
       <c r="F14" s="12">
-        <v>45.092209523809501</v>
+        <v>45.102847619047665</v>
       </c>
       <c r="G14" s="12">
         <v>-65.233333333333334</v>
       </c>
       <c r="H14" s="12">
-        <v>45.26190476190483</v>
+        <v>45.269009523809501</v>
       </c>
       <c r="I14" s="12">
-        <v>-64.748619047619002</v>
+        <v>-64.759533333333337</v>
       </c>
       <c r="L14" s="6">
         <v>4</v>
@@ -1109,28 +1127,28 @@
         <v>5</v>
       </c>
       <c r="B15" s="16">
-        <v>4506.649428571428</v>
+        <v>4507.1281428571428</v>
       </c>
       <c r="C15" s="16">
         <v>6514</v>
       </c>
       <c r="D15" s="16">
-        <v>4516.4607142857149</v>
+        <v>4516.7804285714283</v>
       </c>
       <c r="E15" s="16">
-        <v>6446.062857142857</v>
+        <v>6446.5540000000001</v>
       </c>
       <c r="F15" s="12">
-        <v>45.110823809523836</v>
+        <v>45.118802380952332</v>
       </c>
       <c r="G15" s="12">
         <v>-65.233333333333334</v>
       </c>
       <c r="H15" s="12">
-        <v>45.274345238095165</v>
+        <v>45.279673809523835</v>
       </c>
       <c r="I15" s="12">
-        <v>-64.767714285714334</v>
+        <v>-64.775900000000007</v>
       </c>
       <c r="L15" s="6" t="str">
         <v>BOTTOM</v>
@@ -1165,28 +1183,28 @@
         <v>6</v>
       </c>
       <c r="B16" s="16">
-        <v>4507.766285714285</v>
+        <v>4508.0854285714286</v>
       </c>
       <c r="C16" s="16">
         <v>6514</v>
       </c>
       <c r="D16" s="16">
-        <v>4517.2071428571435</v>
+        <v>4517.4202857142855</v>
       </c>
       <c r="E16" s="16">
-        <v>6447.2085714285713</v>
+        <v>6447.5360000000001</v>
       </c>
       <c r="F16" s="12">
-        <v>45.129438095238164</v>
+        <v>45.134757142857168</v>
       </c>
       <c r="G16" s="12">
         <v>-65.233333333333334</v>
       </c>
       <c r="H16" s="12">
-        <v>45.286785714285664</v>
+        <v>45.29033809523817</v>
       </c>
       <c r="I16" s="12">
-        <v>-64.786809523809495</v>
+        <v>-64.792266666666663</v>
       </c>
       <c r="L16" s="6">
         <v>0</v>
@@ -1221,28 +1239,28 @@
         <v>7</v>
       </c>
       <c r="B17" s="16">
-        <v>4508.883142857142</v>
+        <v>4509.0427142857143</v>
       </c>
       <c r="C17" s="16">
         <v>6514</v>
       </c>
       <c r="D17" s="16">
-        <v>4517.9535714285721</v>
+        <v>4518.0601428571426</v>
       </c>
       <c r="E17" s="16">
-        <v>6448.3542857142857</v>
+        <v>6448.518</v>
       </c>
       <c r="F17" s="12">
-        <v>45.148052380952336</v>
+        <v>45.150711904761835</v>
       </c>
       <c r="G17" s="12">
         <v>-65.233333333333334</v>
       </c>
       <c r="H17" s="12">
-        <v>45.299226190476169</v>
+        <v>45.301002380952333</v>
       </c>
       <c r="I17" s="12">
-        <v>-64.805904761904827</v>
+        <v>-64.808633333333333</v>
       </c>
       <c r="K17" s="1"/>
       <c r="L17" s="6" t="str">
@@ -1278,13 +1296,13 @@
         <v>8</v>
       </c>
       <c r="B18" s="16">
-        <v>4509.9999999999991</v>
+        <v>4510</v>
       </c>
       <c r="C18" s="16">
         <v>6514</v>
       </c>
       <c r="D18" s="16">
-        <v>4518.7000000000007</v>
+        <v>4518.7</v>
       </c>
       <c r="E18" s="16">
         <v>6449.5</v>
@@ -1306,28 +1324,28 @@
         <v>TOP</v>
       </c>
       <c r="M18" s="6">
-        <v>4517.2759939999996</v>
+        <v>4517.3500000000004</v>
       </c>
       <c r="N18" s="6">
-        <v>6503.107994</v>
+        <v>6503</v>
       </c>
       <c r="O18" s="6">
-        <v>4520.348</v>
+        <v>4520.3999999999996</v>
       </c>
       <c r="P18" s="6">
-        <v>6452.4799940000003</v>
+        <v>6453</v>
       </c>
       <c r="Q18" s="6">
-        <v>45.290999999999997</v>
+        <v>45.289166666666667</v>
       </c>
       <c r="R18" s="6">
-        <v>-65.052999999999997</v>
+        <v>-65.05</v>
       </c>
       <c r="S18" s="6">
-        <v>45.343000000000004</v>
+        <v>45.34</v>
       </c>
       <c r="T18">
-        <v>-64.88</v>
+        <v>-64.88333333333334</v>
       </c>
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.25">
@@ -1335,28 +1353,28 @@
         <v>9</v>
       </c>
       <c r="B19" s="16">
-        <v>4511.1168571428561</v>
+        <v>4510.9572857142857</v>
       </c>
       <c r="C19" s="16">
         <v>6514</v>
       </c>
       <c r="D19" s="16">
-        <v>4519.4464285714294</v>
+        <v>4519.339857142857</v>
       </c>
       <c r="E19" s="16">
-        <v>6450.6457142857143</v>
+        <v>6450.482</v>
       </c>
       <c r="F19" s="12">
-        <v>45.185280952381</v>
+        <v>45.182621428571501</v>
       </c>
       <c r="G19" s="12">
         <v>-65.233333333333334</v>
       </c>
       <c r="H19" s="12">
-        <v>45.324107142857166</v>
+        <v>45.322330952381002</v>
       </c>
       <c r="I19" s="12">
-        <v>-64.844095238095164</v>
+        <v>-64.841366666666673</v>
       </c>
       <c r="L19" s="6" t="str">
         <v>BOATS</v>
@@ -1391,28 +1409,28 @@
         <v>10</v>
       </c>
       <c r="B20" s="16">
-        <v>4512.2337142857132</v>
+        <v>4511.9145714285714</v>
       </c>
       <c r="C20" s="16">
         <v>6514</v>
       </c>
       <c r="D20" s="16">
-        <v>4520.192857142858</v>
+        <v>4519.9797142857142</v>
       </c>
       <c r="E20" s="16">
-        <v>6451.7914285714287</v>
+        <v>6451.4639999999999</v>
       </c>
       <c r="F20" s="12">
-        <v>45.203895238095164</v>
+        <v>45.198576190476167</v>
       </c>
       <c r="G20" s="12">
         <v>-65.233333333333334</v>
       </c>
       <c r="H20" s="12">
-        <v>45.336547619047664</v>
+        <v>45.332995238095165</v>
       </c>
       <c r="I20" s="12">
-        <v>-64.863190476190496</v>
+        <v>-64.857733333333329</v>
       </c>
       <c r="L20" s="6" t="str">
         <v>LINES</v>
@@ -1447,55 +1465,55 @@
         <v>11</v>
       </c>
       <c r="B21" s="16">
-        <v>4513.3505714285702</v>
+        <v>4512.8718571428572</v>
       </c>
       <c r="C21" s="16">
         <v>6514</v>
       </c>
       <c r="D21" s="16">
-        <v>4520.9392857142866</v>
+        <v>4520.6195714285714</v>
       </c>
       <c r="E21" s="16">
-        <v>6452.937142857143</v>
+        <v>6452.4459999999999</v>
       </c>
       <c r="F21" s="12">
-        <v>45.222509523809499</v>
+        <v>45.214530952380997</v>
       </c>
       <c r="G21" s="12">
         <v>-65.233333333333334</v>
       </c>
       <c r="H21" s="12">
-        <v>45.34898809523817</v>
+        <v>45.343659523809499</v>
       </c>
       <c r="I21" s="12">
-        <v>-64.882285714285672</v>
+        <v>-64.874099999999999</v>
       </c>
       <c r="L21" s="6" t="str">
         <v>SPACING</v>
       </c>
       <c r="M21" s="6">
-        <v>0.95199999999992235</v>
+        <v>0.78333333333345456</v>
       </c>
       <c r="N21" s="6">
         <v>0</v>
       </c>
-      <c r="O21" s="6">
-        <v>0.60266866666673502</v>
+      <c r="O21" s="6" t="e">
+        <v>#VALUE!</v>
       </c>
       <c r="P21" s="6">
-        <v>1.023997999999968</v>
+        <v>1</v>
       </c>
       <c r="Q21" s="6">
-        <v>1.5333333333333124E-2</v>
+        <v>1.4722222222223044E-2</v>
       </c>
       <c r="R21" s="6">
         <v>0</v>
       </c>
       <c r="S21" s="6">
-        <v>9.3333333333352666E-3</v>
+        <v>8.3333333333352275E-3</v>
       </c>
       <c r="T21">
-        <v>-1.7333333333330831E-2</v>
+        <v>-1.8444444444445669E-2</v>
       </c>
     </row>
     <row r="22" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1503,28 +1521,28 @@
         <v>12</v>
       </c>
       <c r="B22" s="16">
-        <v>4514.4674285714273</v>
+        <v>4513.8291428571429</v>
       </c>
       <c r="C22" s="16">
         <v>6514</v>
       </c>
       <c r="D22" s="16">
-        <v>4521.6857142857152</v>
+        <v>4521.2594285714285</v>
       </c>
       <c r="E22" s="16">
-        <v>6454.0828571428574</v>
+        <v>6453.4279999999999</v>
       </c>
       <c r="F22" s="12">
-        <v>45.241123809523835</v>
+        <v>45.230485714285663</v>
       </c>
       <c r="G22" s="12">
         <v>-65.233333333333334</v>
       </c>
       <c r="H22" s="12">
-        <v>45.361428571428668</v>
+        <v>45.354323809523834</v>
       </c>
       <c r="I22" s="12">
-        <v>-64.901380952381004</v>
+        <v>-64.890466666666669</v>
       </c>
       <c r="L22" s="6" t="str">
         <v>LINE #</v>
@@ -1559,28 +1577,28 @@
         <v>13</v>
       </c>
       <c r="B23" s="16">
-        <v>4515.5842857142843</v>
+        <v>4514.7864285714286</v>
       </c>
       <c r="C23" s="16">
         <v>6514</v>
       </c>
       <c r="D23" s="16">
-        <v>4522.4321428571438</v>
+        <v>4521.8992857142857</v>
       </c>
       <c r="E23" s="16">
-        <v>6455.2285714285717</v>
+        <v>6454.41</v>
       </c>
       <c r="F23" s="12">
-        <v>45.259738095237999</v>
+        <v>45.2464404761905</v>
       </c>
       <c r="G23" s="12">
         <v>-65.233333333333334</v>
       </c>
       <c r="H23" s="12">
-        <v>45.373869047619003</v>
+        <v>45.364988095238168</v>
       </c>
       <c r="I23" s="12">
-        <v>-64.920476190476165</v>
+        <v>-64.906833333333338</v>
       </c>
       <c r="L23" s="6">
         <v>1</v>
@@ -1615,28 +1633,28 @@
         <v>14</v>
       </c>
       <c r="B24" s="16">
-        <v>4516.7011428571413</v>
+        <v>4515.7437142857143</v>
       </c>
       <c r="C24" s="16">
         <v>6514</v>
       </c>
       <c r="D24" s="16">
-        <v>4523.1785714285725</v>
+        <v>4522.5391428571429</v>
       </c>
       <c r="E24" s="16">
-        <v>6456.3742857142861</v>
+        <v>6455.3919999999998</v>
       </c>
       <c r="F24" s="12">
-        <v>45.278352380952334</v>
+        <v>45.262395238095166</v>
       </c>
       <c r="G24" s="12">
         <v>-65.233333333333334</v>
       </c>
       <c r="H24" s="12">
-        <v>45.386309523809501</v>
+        <v>45.375652380952332</v>
       </c>
       <c r="I24" s="12">
-        <v>-64.939571428571497</v>
+        <v>-64.923199999999994</v>
       </c>
       <c r="L24" s="6">
         <v>2</v>
@@ -1671,28 +1689,28 @@
         <v>15</v>
       </c>
       <c r="B25" s="16">
-        <v>4517.8179999999984</v>
+        <v>4516.701</v>
       </c>
       <c r="C25" s="16">
         <v>6514</v>
       </c>
       <c r="D25" s="16">
-        <v>4523.9250000000011</v>
+        <v>4523.1790000000001</v>
       </c>
       <c r="E25" s="16">
-        <v>6457.52</v>
+        <v>6456.3739999999998</v>
       </c>
       <c r="F25" s="12">
-        <v>45.29696666666667</v>
+        <v>45.278350000000003</v>
       </c>
       <c r="G25" s="12">
         <v>-65.233333333333334</v>
       </c>
       <c r="H25" s="12">
-        <v>45.39875</v>
+        <v>45.386316666666666</v>
       </c>
       <c r="I25" s="12">
-        <v>-64.958666666666673</v>
+        <v>-64.939566666666664</v>
       </c>
       <c r="L25" s="6">
         <v>3</v>
@@ -1727,28 +1745,28 @@
         <v>16</v>
       </c>
       <c r="B26" s="16">
-        <v>4518.9348571428554</v>
+        <v>4517.6582857142857</v>
       </c>
       <c r="C26" s="16">
         <v>6514</v>
       </c>
       <c r="D26" s="16">
-        <v>4524.6714285714297</v>
+        <v>4523.8188571428573</v>
       </c>
       <c r="E26" s="16">
-        <v>6458.6657142857148</v>
+        <v>6457.3559999999998</v>
       </c>
       <c r="F26" s="12">
-        <v>45.315580952380998</v>
+        <v>45.294304761904833</v>
       </c>
       <c r="G26" s="12">
         <v>-65.233333333333334</v>
       </c>
       <c r="H26" s="12">
-        <v>45.411190476190498</v>
+        <v>45.396980952381</v>
       </c>
       <c r="I26" s="12">
-        <v>-64.977761904761834</v>
+        <v>-64.955933333333334</v>
       </c>
       <c r="L26" s="6">
         <v>4</v>
@@ -1783,28 +1801,28 @@
         <v>17</v>
       </c>
       <c r="B27" s="16">
-        <v>4520.0517142857125</v>
+        <v>4518.6155714285715</v>
       </c>
       <c r="C27" s="16">
         <v>6514</v>
       </c>
       <c r="D27" s="16">
-        <v>4525.4178571428583</v>
+        <v>4524.4587142857144</v>
       </c>
       <c r="E27" s="16">
-        <v>6459.8114285714291</v>
+        <v>6458.3379999999997</v>
       </c>
       <c r="F27" s="12">
-        <v>45.33419523809517</v>
+        <v>45.310259523809499</v>
       </c>
       <c r="G27" s="12">
         <v>-65.233333333333334</v>
       </c>
       <c r="H27" s="12">
-        <v>45.423630952381004</v>
+        <v>45.407645238095164</v>
       </c>
       <c r="I27" s="12">
-        <v>-64.996857142857166</v>
+        <v>-64.972300000000004</v>
       </c>
       <c r="L27" s="6" t="e">
         <v>#N/A</v>
@@ -1839,28 +1857,28 @@
         <v>18</v>
       </c>
       <c r="B28" s="16">
-        <v>4521.1685714285695</v>
+        <v>4519.5728571428572</v>
       </c>
       <c r="C28" s="16">
         <v>6514</v>
       </c>
       <c r="D28" s="16">
-        <v>4526.164285714287</v>
+        <v>4525.0985714285716</v>
       </c>
       <c r="E28" s="16">
-        <v>6460.9571428571435</v>
+        <v>6459.32</v>
       </c>
       <c r="F28" s="12">
-        <v>45.352809523809498</v>
+        <v>45.326214285714336</v>
       </c>
       <c r="G28" s="12">
         <v>-65.233333333333334</v>
       </c>
       <c r="H28" s="12">
-        <v>45.436071428571502</v>
+        <v>45.418309523809498</v>
       </c>
       <c r="I28" s="12">
-        <v>-65.015952380952328</v>
+        <v>-64.98866666666666</v>
       </c>
       <c r="L28" s="6" t="e">
         <v>#N/A</v>
@@ -3217,7 +3235,7 @@
   <dimension ref="A1:E1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E17" sqref="B2:E17"/>
+      <selection activeCell="M19" sqref="M19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3245,274 +3263,274 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="B2">
-        <v>45.224583333333335</v>
+        <v>45.054983333333332</v>
       </c>
       <c r="C2">
-        <v>-64.691333333333333</v>
+        <v>-65.233333333333334</v>
       </c>
       <c r="D2">
-        <v>45.263750000000002</v>
+        <v>45.237016666666669</v>
       </c>
       <c r="E2">
-        <v>-64.55</v>
+        <v>-64.710433333333327</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="B3">
-        <v>45.239277777777836</v>
-      </c>
-      <c r="C3">
-        <v>-64.713277777777833</v>
-      </c>
-      <c r="D3">
-        <v>45.285277777777836</v>
+        <v>47</v>
+      </c>
+      <c r="B3" s="6">
+        <v>45.224583333333335</v>
+      </c>
+      <c r="C3" s="6">
+        <v>-64.691333333333333</v>
+      </c>
+      <c r="D3" s="6">
+        <v>45.263750000000002</v>
       </c>
       <c r="E3">
         <v>-64.55</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>38</v>
+      <c r="A4" s="21" t="s">
+        <v>47</v>
       </c>
       <c r="B4">
-        <v>45.253972222222167</v>
+        <v>45.070938095238169</v>
       </c>
       <c r="C4">
-        <v>-64.735222222222163</v>
+        <v>-65.233333333333334</v>
       </c>
       <c r="D4">
-        <v>45.306805555555499</v>
+        <v>45.247680952381003</v>
       </c>
       <c r="E4">
-        <v>-64.55</v>
+        <v>-64.726799999999997</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>38</v>
-      </c>
-      <c r="B5">
-        <v>45.268666666666668</v>
-      </c>
-      <c r="C5">
-        <v>-64.757166666666663</v>
-      </c>
-      <c r="D5">
-        <v>45.328333333333333</v>
+      <c r="A5" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="B5" s="6">
+        <v>45.239277777777836</v>
+      </c>
+      <c r="C5" s="6">
+        <v>-64.713277777777833</v>
+      </c>
+      <c r="D5" s="6">
+        <v>45.285277777777836</v>
       </c>
       <c r="E5">
         <v>-64.55</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>43</v>
+      <c r="A6" s="21" t="s">
+        <v>41</v>
       </c>
       <c r="B6">
-        <v>45.25</v>
+        <v>45.086892857142836</v>
       </c>
       <c r="C6">
-        <v>-65.05</v>
+        <v>-65.233333333333334</v>
       </c>
       <c r="D6">
-        <v>45.31666666666667</v>
+        <v>45.258345238095167</v>
       </c>
       <c r="E6">
-        <v>-64.833333333333329</v>
+        <v>-64.743166666666667</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>43</v>
-      </c>
-      <c r="B7">
-        <v>45.26305</v>
-      </c>
-      <c r="C7">
-        <v>-65.05</v>
-      </c>
-      <c r="D7">
-        <v>45.324449999999999</v>
+      <c r="A7" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="B7" s="6">
+        <v>45.253972222222167</v>
+      </c>
+      <c r="C7" s="6">
+        <v>-64.735222222222163</v>
+      </c>
+      <c r="D7" s="6">
+        <v>45.306805555555499</v>
       </c>
       <c r="E7">
-        <v>-64.849999999999994</v>
+        <v>-64.55</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>43</v>
+      <c r="A8" s="21" t="s">
+        <v>41</v>
       </c>
       <c r="B8">
-        <v>45.276116666666667</v>
+        <v>45.102847619047665</v>
       </c>
       <c r="C8">
-        <v>-65.05</v>
+        <v>-65.233333333333334</v>
       </c>
       <c r="D8">
-        <v>45.332216666666667</v>
+        <v>45.269009523809501</v>
       </c>
       <c r="E8">
-        <v>-64.86666666666666</v>
+        <v>-64.759533333333337</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>43</v>
-      </c>
-      <c r="B9">
-        <v>45.289166666666667</v>
-      </c>
-      <c r="C9">
-        <v>-65.05</v>
-      </c>
-      <c r="D9">
-        <v>45.34</v>
+      <c r="A9" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="B9" s="6">
+        <v>45.268666666666668</v>
+      </c>
+      <c r="C9" s="6">
+        <v>-64.757166666666663</v>
+      </c>
+      <c r="D9" s="6">
+        <v>45.328333333333333</v>
       </c>
       <c r="E9">
-        <v>-64.88333333333334</v>
+        <v>-64.55</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>40</v>
+      <c r="A10" s="21" t="s">
+        <v>48</v>
       </c>
       <c r="B10">
-        <v>45.036366666666666</v>
+        <v>45.118802380952332</v>
       </c>
       <c r="C10">
         <v>-65.233333333333334</v>
       </c>
       <c r="D10">
-        <v>45.216216666666668</v>
+        <v>45.279673809523835</v>
       </c>
       <c r="E10">
-        <v>-64.681066666666666</v>
+        <v>-64.775900000000007</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>41</v>
+      <c r="A11" s="21" t="s">
+        <v>48</v>
       </c>
       <c r="B11">
-        <v>45.054980952381001</v>
+        <v>45.134757142857168</v>
       </c>
       <c r="C11">
         <v>-65.233333333333334</v>
       </c>
       <c r="D11">
-        <v>45.22985238095233</v>
+        <v>45.29033809523817</v>
       </c>
       <c r="E11">
-        <v>-64.7016285714285</v>
+        <v>-64.792266666666663</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>42</v>
+      <c r="A12" s="21" t="s">
+        <v>48</v>
       </c>
       <c r="B12">
-        <v>45.073595238095166</v>
+        <v>45.150711904761835</v>
       </c>
       <c r="C12">
         <v>-65.233333333333334</v>
       </c>
       <c r="D12">
-        <v>45.243488095238</v>
+        <v>45.301002380952333</v>
       </c>
       <c r="E12">
-        <v>-64.722190476190505</v>
+        <v>-64.808633333333333</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="A13" s="21" t="s">
         <v>39</v>
       </c>
       <c r="B13">
-        <v>45.092209523809501</v>
+        <v>45.166666666666664</v>
       </c>
       <c r="C13">
         <v>-65.233333333333334</v>
       </c>
       <c r="D13">
-        <v>45.257123809523833</v>
+        <v>45.311666666666667</v>
       </c>
       <c r="E13">
-        <v>-64.742752380952339</v>
+        <v>-64.825000000000003</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>40</v>
+      <c r="A14" s="21" t="s">
+        <v>39</v>
       </c>
       <c r="B14" s="6">
-        <v>45.110823809523836</v>
+        <v>45.25</v>
       </c>
       <c r="C14" s="6">
-        <v>-65.233333333333334</v>
+        <v>-65.05</v>
       </c>
       <c r="D14" s="6">
-        <v>45.270759523809502</v>
-      </c>
-      <c r="E14" s="6">
-        <v>-64.76331428571433</v>
+        <v>45.31666666666667</v>
+      </c>
+      <c r="E14">
+        <v>-64.833333333333329</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>41</v>
+      <c r="A15" s="21" t="s">
+        <v>39</v>
       </c>
       <c r="B15" s="6">
-        <v>45.129438095238164</v>
+        <v>45.26305</v>
       </c>
       <c r="C15" s="6">
-        <v>-65.233333333333334</v>
+        <v>-65.05</v>
       </c>
       <c r="D15" s="6">
-        <v>45.284395238095165</v>
-      </c>
-      <c r="E15" s="6">
-        <v>-64.783876190476164</v>
+        <v>45.324449999999999</v>
+      </c>
+      <c r="E15">
+        <v>-64.849999999999994</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>42</v>
+      <c r="A16" s="21" t="s">
+        <v>39</v>
       </c>
       <c r="B16" s="6">
-        <v>45.148052380952336</v>
+        <v>45.276116666666667</v>
       </c>
       <c r="C16" s="6">
-        <v>-65.233333333333334</v>
+        <v>-65.05</v>
       </c>
       <c r="D16" s="6">
-        <v>45.298030952380834</v>
-      </c>
-      <c r="E16" s="6">
-        <v>-64.804438095237998</v>
+        <v>45.332216666666667</v>
+      </c>
+      <c r="E16">
+        <v>-64.86666666666666</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="A17" s="21" t="s">
         <v>39</v>
       </c>
       <c r="B17" s="6">
-        <v>45.166666666666664</v>
+        <v>45.289166666666667</v>
       </c>
       <c r="C17" s="6">
-        <v>-65.233333333333334</v>
+        <v>-65.05</v>
       </c>
       <c r="D17" s="6">
-        <v>45.311666666666667</v>
-      </c>
-      <c r="E17" s="6">
-        <v>-64.825000000000003</v>
+        <v>45.34</v>
+      </c>
+      <c r="E17">
+        <v>-64.88333333333334</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25"/>
@@ -5820,8 +5838,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:AM1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="X29" sqref="X29"/>
+    <sheetView topLeftCell="AC1" workbookViewId="0">
+      <selection activeCell="AI24" sqref="AI24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -6059,15 +6077,15 @@
       </c>
       <c r="V5" s="6">
         <f>(V2-V25)/(V4-1)</f>
-        <v>1.116857142857173</v>
+        <v>0.9572857142857174</v>
       </c>
       <c r="X5" s="6">
         <f t="shared" ref="X5" si="10">(X2-X25)/(X4-1)</f>
-        <v>0.7464285714284935</v>
+        <v>0.63985714285718132</v>
       </c>
       <c r="Y5" s="6">
         <f>(Y2-Y25)/(Y4-1)</f>
-        <v>1.1457142857143481</v>
+        <v>0.9819999999999709</v>
       </c>
       <c r="Z5" s="8" t="s">
         <v>26</v>
@@ -6196,22 +6214,22 @@
       </c>
       <c r="V7" s="6">
         <f>V25</f>
-        <v>4502.1819999999998</v>
+        <v>4503.299</v>
       </c>
       <c r="W7" s="6">
         <v>6514</v>
       </c>
       <c r="X7" s="6">
         <f>X25</f>
-        <v>4513.4750000000004</v>
+        <v>4514.2209999999995</v>
       </c>
       <c r="Y7" s="6">
         <f>Y25</f>
-        <v>6441.48</v>
+        <v>6442.6260000000002</v>
       </c>
       <c r="Z7" s="6">
         <f t="shared" ref="Z7:Z25" si="16">(LEFT(V7,2)+((RIGHT(V7,LEN(V7)-2))/60))</f>
-        <v>45.036366666666666</v>
+        <v>45.054983333333332</v>
       </c>
       <c r="AA7" s="6">
         <f t="shared" ref="AA7:AA25" si="17">-(LEFT(W7,2)+((RIGHT(W7,LEN(W7)-2))/60))</f>
@@ -6219,11 +6237,11 @@
       </c>
       <c r="AB7" s="6">
         <f t="shared" ref="AB7:AB25" si="18">(LEFT(X7,2)+((RIGHT(X7,LEN(X7)-2))/60))</f>
-        <v>45.224583333333335</v>
+        <v>45.237016666666669</v>
       </c>
       <c r="AC7" s="6">
         <f t="shared" ref="AC7:AC24" si="19">-(LEFT(Y7,2)+((RIGHT(Y7,LEN(Y7)-2))/60))</f>
-        <v>-64.691333333333333</v>
+        <v>-64.710433333333327</v>
       </c>
       <c r="AE7" s="6">
         <v>1</v>
@@ -6334,22 +6352,22 @@
       </c>
       <c r="V8" s="6">
         <f>V7+$V5</f>
-        <v>4503.2988571428568</v>
+        <v>4504.2562857142857</v>
       </c>
       <c r="W8" s="6">
         <v>6514</v>
       </c>
       <c r="X8" s="6">
         <f t="shared" ref="X8:Y8" si="32">X7+X5</f>
-        <v>4514.221428571429</v>
+        <v>4514.8608571428567</v>
       </c>
       <c r="Y8" s="6">
         <f t="shared" si="32"/>
-        <v>6442.6257142857139</v>
+        <v>6443.6080000000002</v>
       </c>
       <c r="Z8" s="6">
         <f t="shared" si="16"/>
-        <v>45.054980952381001</v>
+        <v>45.070938095238169</v>
       </c>
       <c r="AA8" s="6">
         <f t="shared" si="17"/>
@@ -6357,11 +6375,11 @@
       </c>
       <c r="AB8" s="6">
         <f t="shared" si="18"/>
-        <v>45.237023809523834</v>
+        <v>45.247680952381003</v>
       </c>
       <c r="AC8" s="6">
         <f t="shared" si="19"/>
-        <v>-64.710428571428494</v>
+        <v>-64.726799999999997</v>
       </c>
       <c r="AE8" s="6">
         <v>2</v>
@@ -6473,22 +6491,22 @@
       </c>
       <c r="V9" s="6">
         <f>V8+$V5</f>
-        <v>4504.4157142857139</v>
+        <v>4505.2135714285714</v>
       </c>
       <c r="W9" s="6">
         <v>6514</v>
       </c>
       <c r="X9" s="6">
         <f t="shared" ref="X9:Y9" si="38">X8+X5</f>
-        <v>4514.9678571428576</v>
+        <v>4515.5007142857139</v>
       </c>
       <c r="Y9" s="6">
         <f t="shared" si="38"/>
-        <v>6443.7714285714283</v>
+        <v>6444.59</v>
       </c>
       <c r="Z9" s="6">
         <f t="shared" si="16"/>
-        <v>45.073595238095166</v>
+        <v>45.086892857142836</v>
       </c>
       <c r="AA9" s="6">
         <f t="shared" si="17"/>
@@ -6496,11 +6514,11 @@
       </c>
       <c r="AB9" s="6">
         <f t="shared" si="18"/>
-        <v>45.249464285714332</v>
+        <v>45.258345238095167</v>
       </c>
       <c r="AC9" s="6">
         <f t="shared" si="19"/>
-        <v>-64.72952380952384</v>
+        <v>-64.743166666666667</v>
       </c>
       <c r="AE9" s="6">
         <v>3</v>
@@ -6612,22 +6630,22 @@
       </c>
       <c r="V10" s="6">
         <f>V9+$V5</f>
-        <v>4505.5325714285709</v>
+        <v>4506.1708571428571</v>
       </c>
       <c r="W10" s="6">
         <v>6514</v>
       </c>
       <c r="X10" s="6">
         <f t="shared" ref="X10:Y10" si="42">X9+X5</f>
-        <v>4515.7142857142862</v>
+        <v>4516.1405714285711</v>
       </c>
       <c r="Y10" s="6">
         <f t="shared" si="42"/>
-        <v>6444.9171428571426</v>
+        <v>6445.5720000000001</v>
       </c>
       <c r="Z10" s="6">
         <f t="shared" si="16"/>
-        <v>45.092209523809501</v>
+        <v>45.102847619047665</v>
       </c>
       <c r="AA10" s="6">
         <f t="shared" si="17"/>
@@ -6635,11 +6653,11 @@
       </c>
       <c r="AB10" s="6">
         <f t="shared" si="18"/>
-        <v>45.26190476190483</v>
+        <v>45.269009523809501</v>
       </c>
       <c r="AC10" s="6">
         <f t="shared" si="19"/>
-        <v>-64.748619047619002</v>
+        <v>-64.759533333333337</v>
       </c>
       <c r="AE10" s="6">
         <v>4</v>
@@ -6751,22 +6769,22 @@
       </c>
       <c r="V11" s="6">
         <f>V10+$V5</f>
-        <v>4506.649428571428</v>
+        <v>4507.1281428571428</v>
       </c>
       <c r="W11" s="6">
         <v>6514</v>
       </c>
       <c r="X11" s="6">
         <f t="shared" ref="X11:Y11" si="46">X10+X5</f>
-        <v>4516.4607142857149</v>
+        <v>4516.7804285714283</v>
       </c>
       <c r="Y11" s="6">
         <f t="shared" si="46"/>
-        <v>6446.062857142857</v>
+        <v>6446.5540000000001</v>
       </c>
       <c r="Z11" s="6">
         <f t="shared" si="16"/>
-        <v>45.110823809523836</v>
+        <v>45.118802380952332</v>
       </c>
       <c r="AA11" s="6">
         <f t="shared" si="17"/>
@@ -6774,11 +6792,11 @@
       </c>
       <c r="AB11" s="6">
         <f t="shared" si="18"/>
-        <v>45.274345238095165</v>
+        <v>45.279673809523835</v>
       </c>
       <c r="AC11" s="6">
         <f t="shared" si="19"/>
-        <v>-64.767714285714334</v>
+        <v>-64.775900000000007</v>
       </c>
       <c r="AE11" s="6" t="s">
         <v>28</v>
@@ -6887,22 +6905,22 @@
       </c>
       <c r="V12" s="6">
         <f>V11+$V5</f>
-        <v>4507.766285714285</v>
+        <v>4508.0854285714286</v>
       </c>
       <c r="W12" s="6">
         <v>6514</v>
       </c>
       <c r="X12" s="6">
         <f t="shared" ref="X12:Y12" si="53">X11+X5</f>
-        <v>4517.2071428571435</v>
+        <v>4517.4202857142855</v>
       </c>
       <c r="Y12" s="6">
         <f t="shared" si="53"/>
-        <v>6447.2085714285713</v>
+        <v>6447.5360000000001</v>
       </c>
       <c r="Z12" s="6">
         <f t="shared" si="16"/>
-        <v>45.129438095238164</v>
+        <v>45.134757142857168</v>
       </c>
       <c r="AA12" s="6">
         <f t="shared" si="17"/>
@@ -6910,11 +6928,11 @@
       </c>
       <c r="AB12" s="6">
         <f t="shared" si="18"/>
-        <v>45.286785714285664</v>
+        <v>45.29033809523817</v>
       </c>
       <c r="AC12" s="6">
         <f t="shared" si="19"/>
-        <v>-64.786809523809495</v>
+        <v>-64.792266666666663</v>
       </c>
     </row>
     <row r="13" spans="1:39" x14ac:dyDescent="0.25">
@@ -6992,22 +7010,22 @@
       </c>
       <c r="V13" s="6">
         <f>V12+$V5</f>
-        <v>4508.883142857142</v>
+        <v>4509.0427142857143</v>
       </c>
       <c r="W13" s="6">
         <v>6514</v>
       </c>
       <c r="X13" s="6">
         <f t="shared" ref="X13:Y13" si="56">X12+X5</f>
-        <v>4517.9535714285721</v>
+        <v>4518.0601428571426</v>
       </c>
       <c r="Y13" s="6">
         <f t="shared" si="56"/>
-        <v>6448.3542857142857</v>
+        <v>6448.518</v>
       </c>
       <c r="Z13" s="6">
         <f t="shared" si="16"/>
-        <v>45.148052380952336</v>
+        <v>45.150711904761835</v>
       </c>
       <c r="AA13" s="6">
         <f t="shared" si="17"/>
@@ -7015,11 +7033,11 @@
       </c>
       <c r="AB13" s="6">
         <f t="shared" si="18"/>
-        <v>45.299226190476169</v>
+        <v>45.301002380952333</v>
       </c>
       <c r="AC13" s="6">
         <f t="shared" si="19"/>
-        <v>-64.805904761904827</v>
+        <v>-64.808633333333333</v>
       </c>
       <c r="AE13" s="8" t="s">
         <v>29</v>
@@ -7100,14 +7118,14 @@
       </c>
       <c r="V14" s="6">
         <f>V13+$V5</f>
-        <v>4509.9999999999991</v>
+        <v>4510</v>
       </c>
       <c r="W14" s="6">
         <v>6514</v>
       </c>
       <c r="X14" s="6">
         <f t="shared" ref="X14:Y14" si="59">X13+X5</f>
-        <v>4518.7000000000007</v>
+        <v>4518.7</v>
       </c>
       <c r="Y14" s="6">
         <f t="shared" si="59"/>
@@ -7133,28 +7151,32 @@
         <v>21</v>
       </c>
       <c r="AF14" s="6">
-        <v>4517.2759939999996</v>
+        <v>4517.3500000000004</v>
       </c>
       <c r="AG14" s="6">
-        <v>6503.107994</v>
+        <v>6503</v>
       </c>
       <c r="AH14" s="6">
-        <v>4520.348</v>
+        <v>4520.3999999999996</v>
       </c>
       <c r="AI14" s="6">
-        <v>6452.4799940000003</v>
+        <v>6453</v>
       </c>
       <c r="AJ14" s="6">
-        <v>45.290999999999997</v>
+        <f t="shared" ref="AJ14" si="60">(LEFT(AF14,2)+((RIGHT(AF14,LEN(AF14)-2))/60))</f>
+        <v>45.289166666666667</v>
       </c>
       <c r="AK14" s="6">
-        <v>-65.052999999999997</v>
+        <f t="shared" ref="AK14" si="61">-(LEFT(AG14,2)+((RIGHT(AG14,LEN(AG14)-2))/60))</f>
+        <v>-65.05</v>
       </c>
       <c r="AL14" s="6">
-        <v>45.343000000000004</v>
+        <f t="shared" ref="AL14" si="62">(LEFT(AH14,2)+((RIGHT(AH14,LEN(AH14)-2))/60))</f>
+        <v>45.34</v>
       </c>
       <c r="AM14" s="6">
-        <v>-64.88</v>
+        <f t="shared" ref="AM14" si="63">-(LEFT(AI14,2)+((RIGHT(AI14,LEN(AI14)-2))/60))</f>
+        <v>-64.88333333333334</v>
       </c>
     </row>
     <row r="15" spans="1:39" x14ac:dyDescent="0.25">
@@ -7189,7 +7211,7 @@
         <v>43.233333333333334</v>
       </c>
       <c r="I15" s="6">
-        <f t="shared" ref="I15" si="60">G15</f>
+        <f t="shared" ref="I15" si="64">G15</f>
         <v>-66.493333333333339</v>
       </c>
       <c r="K15" s="6">
@@ -7223,7 +7245,7 @@
         <v>43.247500000000002</v>
       </c>
       <c r="S15" s="6">
-        <f t="shared" ref="S15" si="61">Q15</f>
+        <f t="shared" ref="S15" si="65">Q15</f>
         <v>-66.405000000000001</v>
       </c>
       <c r="U15" s="6">
@@ -7232,22 +7254,22 @@
       </c>
       <c r="V15" s="6">
         <f>V14+$V5</f>
-        <v>4511.1168571428561</v>
+        <v>4510.9572857142857</v>
       </c>
       <c r="W15" s="6">
         <v>6514</v>
       </c>
       <c r="X15" s="6">
-        <f t="shared" ref="X15:Y15" si="62">X14+X5</f>
-        <v>4519.4464285714294</v>
+        <f t="shared" ref="X15:Y15" si="66">X14+X5</f>
+        <v>4519.339857142857</v>
       </c>
       <c r="Y15" s="6">
-        <f t="shared" si="62"/>
-        <v>6450.6457142857143</v>
+        <f t="shared" si="66"/>
+        <v>6450.482</v>
       </c>
       <c r="Z15" s="6">
         <f t="shared" si="16"/>
-        <v>45.185280952381</v>
+        <v>45.182621428571501</v>
       </c>
       <c r="AA15" s="6">
         <f t="shared" si="17"/>
@@ -7255,11 +7277,11 @@
       </c>
       <c r="AB15" s="6">
         <f t="shared" si="18"/>
-        <v>45.324107142857166</v>
+        <v>45.322330952381002</v>
       </c>
       <c r="AC15" s="6">
         <f t="shared" si="19"/>
-        <v>-64.844095238095164</v>
+        <v>-64.841366666666673</v>
       </c>
       <c r="AE15" s="6" t="s">
         <v>23</v>
@@ -7311,7 +7333,7 @@
         <v>43.233333333333334</v>
       </c>
       <c r="I16" s="6">
-        <f t="shared" ref="I16" si="63">G16</f>
+        <f t="shared" ref="I16" si="67">G16</f>
         <v>-66.529523809523837</v>
       </c>
       <c r="K16" s="6">
@@ -7345,7 +7367,7 @@
         <v>43.247500000000002</v>
       </c>
       <c r="S16" s="6">
-        <f t="shared" ref="S16" si="64">Q16</f>
+        <f t="shared" ref="S16" si="68">Q16</f>
         <v>-66.44</v>
       </c>
       <c r="U16" s="6">
@@ -7354,22 +7376,22 @@
       </c>
       <c r="V16" s="6">
         <f>V15+$V5</f>
-        <v>4512.2337142857132</v>
+        <v>4511.9145714285714</v>
       </c>
       <c r="W16" s="6">
         <v>6514</v>
       </c>
       <c r="X16" s="6">
-        <f t="shared" ref="X16:Y16" si="65">X15+X5</f>
-        <v>4520.192857142858</v>
+        <f t="shared" ref="X16:Y16" si="69">X15+X5</f>
+        <v>4519.9797142857142</v>
       </c>
       <c r="Y16" s="6">
-        <f t="shared" si="65"/>
-        <v>6451.7914285714287</v>
+        <f t="shared" si="69"/>
+        <v>6451.4639999999999</v>
       </c>
       <c r="Z16" s="6">
         <f t="shared" si="16"/>
-        <v>45.203895238095164</v>
+        <v>45.198576190476167</v>
       </c>
       <c r="AA16" s="6">
         <f t="shared" si="17"/>
@@ -7377,11 +7399,11 @@
       </c>
       <c r="AB16" s="6">
         <f t="shared" si="18"/>
-        <v>45.336547619047664</v>
+        <v>45.332995238095165</v>
       </c>
       <c r="AC16" s="6">
         <f t="shared" si="19"/>
-        <v>-64.863190476190496</v>
+        <v>-64.857733333333329</v>
       </c>
       <c r="AE16" s="6" t="s">
         <v>24</v>
@@ -7391,11 +7413,11 @@
         <v>4</v>
       </c>
       <c r="AH16" s="6">
-        <f t="shared" ref="AH16:AI16" si="66">AH15*4</f>
+        <f t="shared" ref="AH16:AI16" si="70">AH15*4</f>
         <v>4</v>
       </c>
       <c r="AI16" s="6">
-        <f t="shared" si="66"/>
+        <f t="shared" si="70"/>
         <v>4</v>
       </c>
       <c r="AJ16">
@@ -7440,7 +7462,7 @@
         <v>43.233333333333334</v>
       </c>
       <c r="I17" s="6">
-        <f t="shared" ref="I17" si="67">G17</f>
+        <f t="shared" ref="I17" si="71">G17</f>
         <v>-66.565714285714336</v>
       </c>
       <c r="K17" s="6">
@@ -7474,7 +7496,7 @@
         <v>43.247500000000002</v>
       </c>
       <c r="S17" s="6">
-        <f t="shared" ref="S17" si="68">Q17</f>
+        <f t="shared" ref="S17" si="72">Q17</f>
         <v>-66.474999999999994</v>
       </c>
       <c r="U17" s="6">
@@ -7483,22 +7505,22 @@
       </c>
       <c r="V17" s="6">
         <f>V16+$V5</f>
-        <v>4513.3505714285702</v>
+        <v>4512.8718571428572</v>
       </c>
       <c r="W17" s="6">
         <v>6514</v>
       </c>
       <c r="X17" s="6">
-        <f t="shared" ref="X17:Y17" si="69">X16+X5</f>
-        <v>4520.9392857142866</v>
+        <f t="shared" ref="X17:Y17" si="73">X16+X5</f>
+        <v>4520.6195714285714</v>
       </c>
       <c r="Y17" s="6">
-        <f t="shared" si="69"/>
-        <v>6452.937142857143</v>
+        <f t="shared" si="73"/>
+        <v>6452.4459999999999</v>
       </c>
       <c r="Z17" s="6">
         <f t="shared" si="16"/>
-        <v>45.222509523809499</v>
+        <v>45.214530952380997</v>
       </c>
       <c r="AA17" s="6">
         <f t="shared" si="17"/>
@@ -7506,38 +7528,38 @@
       </c>
       <c r="AB17" s="6">
         <f t="shared" si="18"/>
-        <v>45.34898809523817</v>
+        <v>45.343659523809499</v>
       </c>
       <c r="AC17" s="6">
         <f t="shared" si="19"/>
-        <v>-64.882285714285672</v>
+        <v>-64.874099999999999</v>
       </c>
       <c r="AE17" s="6" t="s">
         <v>25</v>
       </c>
       <c r="AF17" s="6">
         <f>(AF14-AF23)/(AF16-1)</f>
-        <v>0.95199999999992235</v>
-      </c>
-      <c r="AH17" s="6">
+        <v>0.78333333333345456</v>
+      </c>
+      <c r="AH17" s="6" t="e">
         <f>(AH14-AH23)/(AH16-1)</f>
-        <v>0.60266866666673502</v>
+        <v>#VALUE!</v>
       </c>
       <c r="AI17" s="6">
         <f>(AI14-AI23)/(AI16-1)</f>
-        <v>1.023997999999968</v>
+        <v>1</v>
       </c>
       <c r="AJ17" s="6">
         <f>(AJ14-AJ23)/(AJ16-1)</f>
-        <v>1.5333333333333124E-2</v>
+        <v>1.4722222222223044E-2</v>
       </c>
       <c r="AL17" s="6">
         <f>(AL14-AL23)/(AL16-1)</f>
-        <v>9.3333333333352666E-3</v>
+        <v>8.3333333333352275E-3</v>
       </c>
       <c r="AM17" s="6">
         <f>-(AM23-AM14)/(AM16-1)</f>
-        <v>-1.7333333333330831E-2</v>
+        <v>-1.8444444444445669E-2</v>
       </c>
     </row>
     <row r="18" spans="1:39" x14ac:dyDescent="0.25">
@@ -7572,7 +7594,7 @@
         <v>43.233333333333334</v>
       </c>
       <c r="I18" s="6">
-        <f t="shared" ref="I18" si="70">G18</f>
+        <f t="shared" ref="I18" si="74">G18</f>
         <v>-66.601904761904834</v>
       </c>
       <c r="K18" s="6">
@@ -7606,7 +7628,7 @@
         <v>43.247500000000002</v>
       </c>
       <c r="S18" s="6">
-        <f t="shared" ref="S18" si="71">Q18</f>
+        <f t="shared" ref="S18" si="75">Q18</f>
         <v>-66.510000000000005</v>
       </c>
       <c r="U18" s="6">
@@ -7615,22 +7637,22 @@
       </c>
       <c r="V18" s="6">
         <f>V17+$V5</f>
-        <v>4514.4674285714273</v>
+        <v>4513.8291428571429</v>
       </c>
       <c r="W18" s="6">
         <v>6514</v>
       </c>
       <c r="X18" s="9">
-        <f t="shared" ref="X18:Y18" si="72">X17+X5</f>
-        <v>4521.6857142857152</v>
+        <f t="shared" ref="X18:Y18" si="76">X17+X5</f>
+        <v>4521.2594285714285</v>
       </c>
       <c r="Y18" s="6">
-        <f t="shared" si="72"/>
-        <v>6454.0828571428574</v>
+        <f t="shared" si="76"/>
+        <v>6453.4279999999999</v>
       </c>
       <c r="Z18" s="6">
         <f t="shared" si="16"/>
-        <v>45.241123809523835</v>
+        <v>45.230485714285663</v>
       </c>
       <c r="AA18" s="6">
         <f t="shared" si="17"/>
@@ -7638,11 +7660,11 @@
       </c>
       <c r="AB18" s="6">
         <f t="shared" si="18"/>
-        <v>45.361428571428668</v>
+        <v>45.354323809523834</v>
       </c>
       <c r="AC18" s="6">
         <f t="shared" si="19"/>
-        <v>-64.901380952381004</v>
+        <v>-64.890466666666669</v>
       </c>
       <c r="AE18" s="6" t="s">
         <v>27</v>
@@ -7692,7 +7714,7 @@
         <v>43.233333333333334</v>
       </c>
       <c r="I19" s="6">
-        <f t="shared" ref="I19" si="73">G19</f>
+        <f t="shared" ref="I19" si="77">G19</f>
         <v>-66.638095238095332</v>
       </c>
       <c r="K19" s="6">
@@ -7726,7 +7748,7 @@
         <v>43.247500000000002</v>
       </c>
       <c r="S19" s="6">
-        <f t="shared" ref="S19" si="74">Q19</f>
+        <f t="shared" ref="S19" si="78">Q19</f>
         <v>-66.545000000000002</v>
       </c>
       <c r="U19" s="6">
@@ -7735,22 +7757,22 @@
       </c>
       <c r="V19" s="6">
         <f>V18+$V5</f>
-        <v>4515.5842857142843</v>
+        <v>4514.7864285714286</v>
       </c>
       <c r="W19" s="6">
         <v>6514</v>
       </c>
       <c r="X19" s="6">
-        <f t="shared" ref="X19:Y19" si="75">X18+X5</f>
-        <v>4522.4321428571438</v>
+        <f t="shared" ref="X19:Y19" si="79">X18+X5</f>
+        <v>4521.8992857142857</v>
       </c>
       <c r="Y19" s="6">
-        <f t="shared" si="75"/>
-        <v>6455.2285714285717</v>
+        <f t="shared" si="79"/>
+        <v>6454.41</v>
       </c>
       <c r="Z19" s="6">
         <f t="shared" si="16"/>
-        <v>45.259738095237999</v>
+        <v>45.2464404761905</v>
       </c>
       <c r="AA19" s="6">
         <f t="shared" si="17"/>
@@ -7758,11 +7780,11 @@
       </c>
       <c r="AB19" s="6">
         <f t="shared" si="18"/>
-        <v>45.373869047619003</v>
+        <v>45.364988095238168</v>
       </c>
       <c r="AC19" s="6">
         <f t="shared" si="19"/>
-        <v>-64.920476190476165</v>
+        <v>-64.906833333333338</v>
       </c>
       <c r="AE19" s="6">
         <v>1</v>
@@ -7788,7 +7810,7 @@
         <v>-65.05</v>
       </c>
       <c r="AL19" s="6">
-        <f t="shared" ref="AL19:AL22" si="76">(LEFT(AH19,2)+((RIGHT(AH19,LEN(AH19)-2))/60))</f>
+        <f t="shared" ref="AL19:AL22" si="80">(LEFT(AH19,2)+((RIGHT(AH19,LEN(AH19)-2))/60))</f>
         <v>45.31666666666667</v>
       </c>
       <c r="AM19" s="6">
@@ -7828,7 +7850,7 @@
         <v>43.233333333333334</v>
       </c>
       <c r="I20" s="6">
-        <f t="shared" ref="I20" si="77">G20</f>
+        <f t="shared" ref="I20" si="81">G20</f>
         <v>-66.67428571428583</v>
       </c>
       <c r="K20" s="6">
@@ -7862,7 +7884,7 @@
         <v>43.247500000000002</v>
       </c>
       <c r="S20" s="6">
-        <f t="shared" ref="S20" si="78">Q20</f>
+        <f t="shared" ref="S20" si="82">Q20</f>
         <v>-66.58</v>
       </c>
       <c r="U20" s="6">
@@ -7871,22 +7893,22 @@
       </c>
       <c r="V20" s="6">
         <f>V19+$V5</f>
-        <v>4516.7011428571413</v>
+        <v>4515.7437142857143</v>
       </c>
       <c r="W20" s="6">
         <v>6514</v>
       </c>
       <c r="X20" s="6">
-        <f t="shared" ref="X20:Y20" si="79">X19+X5</f>
-        <v>4523.1785714285725</v>
+        <f t="shared" ref="X20:Y20" si="83">X19+X5</f>
+        <v>4522.5391428571429</v>
       </c>
       <c r="Y20" s="6">
-        <f t="shared" si="79"/>
-        <v>6456.3742857142861</v>
+        <f t="shared" si="83"/>
+        <v>6455.3919999999998</v>
       </c>
       <c r="Z20" s="6">
         <f t="shared" si="16"/>
-        <v>45.278352380952334</v>
+        <v>45.262395238095166</v>
       </c>
       <c r="AA20" s="6">
         <f t="shared" si="17"/>
@@ -7894,11 +7916,11 @@
       </c>
       <c r="AB20" s="6">
         <f t="shared" si="18"/>
-        <v>45.386309523809501</v>
+        <v>45.375652380952332</v>
       </c>
       <c r="AC20" s="6">
         <f t="shared" si="19"/>
-        <v>-64.939571428571497</v>
+        <v>-64.923199999999994</v>
       </c>
       <c r="AE20" s="6">
         <v>2</v>
@@ -7916,19 +7938,19 @@
         <v>6451</v>
       </c>
       <c r="AJ20" s="6">
-        <f t="shared" ref="AJ20:AJ22" si="80">(LEFT(AF20,2)+((RIGHT(AF20,LEN(AF20)-2))/60))</f>
+        <f t="shared" ref="AJ20:AJ22" si="84">(LEFT(AF20,2)+((RIGHT(AF20,LEN(AF20)-2))/60))</f>
         <v>45.26305</v>
       </c>
       <c r="AK20" s="6">
-        <f t="shared" ref="AK20:AK22" si="81">-(LEFT(AG20,2)+((RIGHT(AG20,LEN(AG20)-2))/60))</f>
+        <f t="shared" ref="AK20:AK22" si="85">-(LEFT(AG20,2)+((RIGHT(AG20,LEN(AG20)-2))/60))</f>
         <v>-65.05</v>
       </c>
       <c r="AL20" s="6">
-        <f t="shared" si="76"/>
+        <f t="shared" si="80"/>
         <v>45.324449999999999</v>
       </c>
       <c r="AM20" s="6">
-        <f t="shared" ref="AM20:AM22" si="82">-(LEFT(AI20,2)+((RIGHT(AI20,LEN(AI20)-2))/60))</f>
+        <f t="shared" ref="AM20:AM22" si="86">-(LEFT(AI20,2)+((RIGHT(AI20,LEN(AI20)-2))/60))</f>
         <v>-64.849999999999994</v>
       </c>
     </row>
@@ -7964,7 +7986,7 @@
         <v>43.233333333333334</v>
       </c>
       <c r="I21" s="6">
-        <f t="shared" ref="I21" si="83">G21</f>
+        <f t="shared" ref="I21" si="87">G21</f>
         <v>-66.710476190476172</v>
       </c>
       <c r="K21" s="6">
@@ -7998,7 +8020,7 @@
         <v>43.247500000000002</v>
       </c>
       <c r="S21" s="6">
-        <f t="shared" ref="S21" si="84">Q21</f>
+        <f t="shared" ref="S21" si="88">Q21</f>
         <v>-66.615000000000165</v>
       </c>
       <c r="U21" s="6">
@@ -8007,22 +8029,22 @@
       </c>
       <c r="V21" s="6">
         <f>V20+$V5</f>
-        <v>4517.8179999999984</v>
+        <v>4516.701</v>
       </c>
       <c r="W21" s="6">
         <v>6514</v>
       </c>
       <c r="X21" s="6">
-        <f t="shared" ref="X21:Y21" si="85">X20+X5</f>
-        <v>4523.9250000000011</v>
+        <f t="shared" ref="X21:Y21" si="89">X20+X5</f>
+        <v>4523.1790000000001</v>
       </c>
       <c r="Y21" s="6">
-        <f t="shared" si="85"/>
-        <v>6457.52</v>
+        <f t="shared" si="89"/>
+        <v>6456.3739999999998</v>
       </c>
       <c r="Z21" s="6">
         <f t="shared" si="16"/>
-        <v>45.29696666666667</v>
+        <v>45.278350000000003</v>
       </c>
       <c r="AA21" s="6">
         <f t="shared" si="17"/>
@@ -8030,11 +8052,11 @@
       </c>
       <c r="AB21" s="6">
         <f t="shared" si="18"/>
-        <v>45.39875</v>
+        <v>45.386316666666666</v>
       </c>
       <c r="AC21" s="6">
         <f t="shared" si="19"/>
-        <v>-64.958666666666673</v>
+        <v>-64.939566666666664</v>
       </c>
       <c r="AE21" s="6">
         <v>3</v>
@@ -8052,19 +8074,19 @@
         <v>6452</v>
       </c>
       <c r="AJ21" s="6">
+        <f t="shared" si="84"/>
+        <v>45.276116666666667</v>
+      </c>
+      <c r="AK21" s="6">
+        <f t="shared" si="85"/>
+        <v>-65.05</v>
+      </c>
+      <c r="AL21" s="6">
         <f t="shared" si="80"/>
-        <v>45.276116666666667</v>
-      </c>
-      <c r="AK21" s="6">
-        <f t="shared" si="81"/>
-        <v>-65.05</v>
-      </c>
-      <c r="AL21" s="6">
-        <f t="shared" si="76"/>
         <v>45.332216666666667</v>
       </c>
       <c r="AM21" s="6">
-        <f t="shared" si="82"/>
+        <f t="shared" si="86"/>
         <v>-64.86666666666666</v>
       </c>
     </row>
@@ -8100,7 +8122,7 @@
         <v>43.233333333333334</v>
       </c>
       <c r="I22" s="6">
-        <f t="shared" ref="I22" si="86">G22</f>
+        <f t="shared" ref="I22" si="90">G22</f>
         <v>-66.74666666666667</v>
       </c>
       <c r="K22" s="6">
@@ -8134,7 +8156,7 @@
         <v>43.247500000000002</v>
       </c>
       <c r="S22" s="6">
-        <f t="shared" ref="S22" si="87">Q22</f>
+        <f t="shared" ref="S22" si="91">Q22</f>
         <v>-66.650000000000162</v>
       </c>
       <c r="U22" s="6">
@@ -8143,22 +8165,22 @@
       </c>
       <c r="V22" s="6">
         <f>V21+$V5</f>
-        <v>4518.9348571428554</v>
+        <v>4517.6582857142857</v>
       </c>
       <c r="W22" s="6">
         <v>6514</v>
       </c>
       <c r="X22" s="6">
-        <f t="shared" ref="X22:Y22" si="88">X21+X5</f>
-        <v>4524.6714285714297</v>
+        <f t="shared" ref="X22:Y22" si="92">X21+X5</f>
+        <v>4523.8188571428573</v>
       </c>
       <c r="Y22" s="6">
-        <f t="shared" si="88"/>
-        <v>6458.6657142857148</v>
+        <f t="shared" si="92"/>
+        <v>6457.3559999999998</v>
       </c>
       <c r="Z22" s="6">
         <f t="shared" si="16"/>
-        <v>45.315580952380998</v>
+        <v>45.294304761904833</v>
       </c>
       <c r="AA22" s="6">
         <f t="shared" si="17"/>
@@ -8166,11 +8188,11 @@
       </c>
       <c r="AB22" s="6">
         <f t="shared" si="18"/>
-        <v>45.411190476190498</v>
+        <v>45.396980952381</v>
       </c>
       <c r="AC22" s="6">
         <f t="shared" si="19"/>
-        <v>-64.977761904761834</v>
+        <v>-64.955933333333334</v>
       </c>
       <c r="AE22" s="6">
         <v>4</v>
@@ -8188,19 +8210,19 @@
         <v>6453</v>
       </c>
       <c r="AJ22" s="6">
+        <f t="shared" si="84"/>
+        <v>45.289166666666667</v>
+      </c>
+      <c r="AK22" s="6">
+        <f t="shared" si="85"/>
+        <v>-65.05</v>
+      </c>
+      <c r="AL22" s="6">
         <f t="shared" si="80"/>
-        <v>45.289166666666667</v>
-      </c>
-      <c r="AK22" s="6">
-        <f t="shared" si="81"/>
-        <v>-65.05</v>
-      </c>
-      <c r="AL22" s="6">
-        <f t="shared" si="76"/>
         <v>45.34</v>
       </c>
       <c r="AM22" s="6">
-        <f t="shared" si="82"/>
+        <f t="shared" si="86"/>
         <v>-64.88333333333334</v>
       </c>
     </row>
@@ -8236,7 +8258,7 @@
         <v>43.233333333333334</v>
       </c>
       <c r="I23" s="6">
-        <f t="shared" ref="I23" si="89">G23</f>
+        <f t="shared" ref="I23" si="93">G23</f>
         <v>-66.782857142857168</v>
       </c>
       <c r="K23" s="6">
@@ -8270,7 +8292,7 @@
         <v>43.247500000000002</v>
       </c>
       <c r="S23" s="6">
-        <f t="shared" ref="S23" si="90">Q23</f>
+        <f t="shared" ref="S23" si="94">Q23</f>
         <v>-66.685000000000173</v>
       </c>
       <c r="U23" s="6">
@@ -8279,22 +8301,22 @@
       </c>
       <c r="V23" s="6">
         <f>V22+$V5</f>
-        <v>4520.0517142857125</v>
+        <v>4518.6155714285715</v>
       </c>
       <c r="W23" s="6">
         <v>6514</v>
       </c>
       <c r="X23" s="6">
-        <f t="shared" ref="X23:Y23" si="91">X22+X5</f>
-        <v>4525.4178571428583</v>
+        <f t="shared" ref="X23:Y23" si="95">X22+X5</f>
+        <v>4524.4587142857144</v>
       </c>
       <c r="Y23" s="6">
-        <f t="shared" si="91"/>
-        <v>6459.8114285714291</v>
+        <f t="shared" si="95"/>
+        <v>6458.3379999999997</v>
       </c>
       <c r="Z23" s="6">
         <f t="shared" si="16"/>
-        <v>45.33419523809517</v>
+        <v>45.310259523809499</v>
       </c>
       <c r="AA23" s="6">
         <f t="shared" si="17"/>
@@ -8302,26 +8324,26 @@
       </c>
       <c r="AB23" s="6">
         <f t="shared" si="18"/>
-        <v>45.423630952381004</v>
+        <v>45.407645238095164</v>
       </c>
       <c r="AC23" s="6">
         <f t="shared" si="19"/>
-        <v>-64.996857142857166</v>
+        <v>-64.972300000000004</v>
       </c>
       <c r="AE23" s="6" t="s">
         <v>28</v>
       </c>
       <c r="AF23" s="6">
-        <v>4514.4199939999999</v>
+        <v>4515</v>
       </c>
       <c r="AG23" s="6">
-        <v>6503.107994</v>
-      </c>
-      <c r="AH23" s="9">
-        <v>4518.5399939999998</v>
+        <v>6503</v>
+      </c>
+      <c r="AH23" s="20" t="s">
+        <v>46</v>
       </c>
       <c r="AI23" s="6">
-        <v>6449.4080000000004</v>
+        <v>6450</v>
       </c>
       <c r="AJ23" s="6">
         <v>45.244999999999997</v>
@@ -8368,7 +8390,7 @@
         <v>43.233333333333334</v>
       </c>
       <c r="I24" s="6">
-        <f t="shared" ref="I24" si="92">G24</f>
+        <f t="shared" ref="I24" si="96">G24</f>
         <v>-66.819047619047666</v>
       </c>
       <c r="K24" s="6">
@@ -8402,7 +8424,7 @@
         <v>43.247500000000002</v>
       </c>
       <c r="S24" s="6">
-        <f t="shared" ref="S24" si="93">Q24</f>
+        <f t="shared" ref="S24" si="97">Q24</f>
         <v>-66.720000000000169</v>
       </c>
       <c r="U24" s="6">
@@ -8411,22 +8433,22 @@
       </c>
       <c r="V24" s="6">
         <f>V23+$V5</f>
-        <v>4521.1685714285695</v>
+        <v>4519.5728571428572</v>
       </c>
       <c r="W24" s="6">
         <v>6514</v>
       </c>
       <c r="X24" s="6">
-        <f t="shared" ref="X24:Y24" si="94">X23+X5</f>
-        <v>4526.164285714287</v>
+        <f t="shared" ref="X24:Y24" si="98">X23+X5</f>
+        <v>4525.0985714285716</v>
       </c>
       <c r="Y24" s="6">
-        <f t="shared" si="94"/>
-        <v>6460.9571428571435</v>
+        <f t="shared" si="98"/>
+        <v>6459.32</v>
       </c>
       <c r="Z24" s="6">
         <f t="shared" si="16"/>
-        <v>45.352809523809498</v>
+        <v>45.326214285714336</v>
       </c>
       <c r="AA24" s="6">
         <f t="shared" si="17"/>
@@ -8434,11 +8456,11 @@
       </c>
       <c r="AB24" s="6">
         <f t="shared" si="18"/>
-        <v>45.436071428571502</v>
+        <v>45.418309523809498</v>
       </c>
       <c r="AC24" s="6">
         <f t="shared" si="19"/>
-        <v>-65.015952380952328</v>
+        <v>-64.98866666666666</v>
       </c>
     </row>
     <row r="25" spans="1:39" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8473,7 +8495,7 @@
         <v>43.233333333333334</v>
       </c>
       <c r="I25" s="6">
-        <f t="shared" ref="I25" si="95">G25</f>
+        <f t="shared" ref="I25" si="99">G25</f>
         <v>-66.855238095238164</v>
       </c>
       <c r="K25" s="6">
@@ -8507,27 +8529,27 @@
         <v>43.247500000000002</v>
       </c>
       <c r="S25" s="6">
-        <f t="shared" ref="S25" si="96">Q25</f>
+        <f t="shared" ref="S25" si="100">Q25</f>
         <v>-66.755000000000166</v>
       </c>
       <c r="U25" s="6" t="s">
         <v>28</v>
       </c>
       <c r="V25" s="6">
-        <v>4502.1819999999998</v>
+        <v>4503.299</v>
       </c>
       <c r="W25" s="6">
         <v>6514</v>
       </c>
       <c r="X25" s="6">
-        <v>4513.4750000000004</v>
+        <v>4514.2209999999995</v>
       </c>
       <c r="Y25" s="6">
-        <v>6441.48</v>
+        <v>6442.6260000000002</v>
       </c>
       <c r="Z25" s="6">
         <f t="shared" si="16"/>
-        <v>45.036366666666666</v>
+        <v>45.054983333333332</v>
       </c>
       <c r="AA25" s="6">
         <f t="shared" si="17"/>
@@ -8535,11 +8557,11 @@
       </c>
       <c r="AB25" s="6">
         <f t="shared" si="18"/>
-        <v>45.224583333333335</v>
+        <v>45.237016666666669</v>
       </c>
       <c r="AC25" s="6">
         <f>-(LEFT(Y25,2)+((RIGHT(Y25,LEN(Y25)-2))/60))</f>
-        <v>-64.691333333333333</v>
+        <v>-64.710433333333327</v>
       </c>
     </row>
     <row r="26" spans="1:39" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8574,7 +8596,7 @@
         <v>43.233333333333334</v>
       </c>
       <c r="I26" s="6">
-        <f t="shared" ref="I26" si="97">G26</f>
+        <f t="shared" ref="I26" si="101">G26</f>
         <v>-66.891428571428662</v>
       </c>
       <c r="K26" s="6">
@@ -8608,7 +8630,7 @@
         <v>43.247500000000002</v>
       </c>
       <c r="S26" s="6">
-        <f t="shared" ref="S26" si="98">Q26</f>
+        <f t="shared" ref="S26" si="102">Q26</f>
         <v>-66.790000000000163</v>
       </c>
     </row>
@@ -8644,7 +8666,7 @@
         <v>43.233333333333334</v>
       </c>
       <c r="I27" s="6">
-        <f t="shared" ref="I27" si="99">G27</f>
+        <f t="shared" ref="I27" si="103">G27</f>
         <v>-66.92761904761916</v>
       </c>
       <c r="K27" s="6">
@@ -8678,7 +8700,7 @@
         <v>43.247500000000002</v>
       </c>
       <c r="S27" s="6">
-        <f t="shared" ref="S27" si="100">Q27</f>
+        <f t="shared" ref="S27" si="104">Q27</f>
         <v>-66.825000000000173</v>
       </c>
     </row>
@@ -8714,7 +8736,7 @@
         <v>43.233333333333334</v>
       </c>
       <c r="I28" s="6">
-        <f t="shared" ref="I28" si="101">G28</f>
+        <f t="shared" ref="I28" si="105">G28</f>
         <v>-66.963809523809672</v>
       </c>
       <c r="K28" s="6">
@@ -8748,7 +8770,7 @@
         <v>43.247500000000002</v>
       </c>
       <c r="S28" s="6">
-        <f t="shared" ref="S28" si="102">Q28</f>
+        <f t="shared" ref="S28" si="106">Q28</f>
         <v>-66.86000000000017</v>
       </c>
     </row>
@@ -8784,7 +8806,7 @@
         <v>43.233333333333334</v>
       </c>
       <c r="I29" s="6">
-        <f t="shared" ref="I29" si="103">G29</f>
+        <f t="shared" ref="I29" si="107">G29</f>
         <v>-67</v>
       </c>
       <c r="K29" s="6">
@@ -8818,7 +8840,7 @@
         <v>43.247500000000002</v>
       </c>
       <c r="S29" s="6">
-        <f t="shared" ref="S29" si="104">Q29</f>
+        <f t="shared" ref="S29" si="108">Q29</f>
         <v>-66.895000000000167</v>
       </c>
     </row>
@@ -8854,7 +8876,7 @@
         <v>43.233333333333334</v>
       </c>
       <c r="I30" s="6">
-        <f t="shared" ref="I30" si="105">G30</f>
+        <f t="shared" ref="I30" si="109">G30</f>
         <v>-67.036190476190498</v>
       </c>
       <c r="K30" s="6">
@@ -8888,7 +8910,7 @@
         <v>43.247500000000002</v>
       </c>
       <c r="S30" s="6">
-        <f t="shared" ref="S30" si="106">Q30</f>
+        <f t="shared" ref="S30" si="110">Q30</f>
         <v>-66.930000000000163</v>
       </c>
     </row>
@@ -8924,7 +8946,7 @@
         <v>43.233333333333334</v>
       </c>
       <c r="I31" s="6">
-        <f t="shared" ref="I31" si="107">G31</f>
+        <f t="shared" ref="I31" si="111">G31</f>
         <v>-67.072380952380996</v>
       </c>
       <c r="K31" s="6" t="s">
